--- a/ES/ITL/Algorithm/ListOfVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/ListOfVariablesV004.xlsx
@@ -249,18 +249,6 @@
     <t>END STATE</t>
   </si>
   <si>
-    <t>START_TIME_LSB</t>
-  </si>
-  <si>
-    <t>START_TIME_MSB</t>
-  </si>
-  <si>
-    <t>STOP_TIME_LSB</t>
-  </si>
-  <si>
-    <t>STOP_TIME_MSB</t>
-  </si>
-  <si>
     <t>SELECTED_WEEKS</t>
   </si>
   <si>
@@ -286,6 +274,18 @@
   </si>
   <si>
     <t>INT8[17]</t>
+  </si>
+  <si>
+    <t>START_TIME_MINUTES</t>
+  </si>
+  <si>
+    <t>STOP_TIME_MINUTES</t>
+  </si>
+  <si>
+    <t>START_TIME_HOURS</t>
+  </si>
+  <si>
+    <t>STOP_TIME_HOURS</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
   </sheetPr>
   <dimension ref="A1:M1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,7 +2628,7 @@
         <v>GPS_SYNC_EVERY_DAY_AT_LOCAL_TIME[0]</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F23" s="21">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>GPS_SYNC_EVERY_DAY_AT_LOCAL_TIME[1]</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" ref="F24" si="17">+F23+1</f>
@@ -5436,7 +5436,7 @@
         <v>EVENTS[0][0]</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F82" s="21">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>EVENTS[0][1]</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F83" s="21">
         <f t="shared" ref="F83:F138" si="40">IF(G83&gt;G82,F82,F82+1)</f>
@@ -5537,7 +5537,7 @@
         <v>EVENTS[0][2]</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F84" s="21">
         <f t="shared" si="40"/>
@@ -5586,7 +5586,7 @@
         <v>EVENTS[0][3]</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F85" s="21">
         <f t="shared" si="40"/>
@@ -5635,7 +5635,7 @@
         <v>EVENTS[0][4]</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F86" s="21">
         <f t="shared" si="40"/>
@@ -5684,7 +5684,7 @@
         <v>EVENTS[0][5]</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="21">
         <f t="shared" si="40"/>
@@ -12134,7 +12134,7 @@
         <v>STATES[0][1]</v>
       </c>
       <c r="E227" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F227" s="21">
         <f t="shared" ref="F227:F268" si="65">IF(G227&gt;G226,F226,F226+1)</f>
@@ -12181,7 +12181,7 @@
         <v>STATES[0][2]</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F228" s="21">
         <f t="shared" si="65"/>
@@ -12228,7 +12228,7 @@
         <v>STATES[0][3]</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F229" s="21">
         <f t="shared" si="65"/>
@@ -12275,7 +12275,7 @@
         <v>STATES[0][4]</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F230" s="21">
         <f t="shared" si="65"/>
@@ -49838,7 +49838,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -49860,7 +49860,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="7">
         <v>6</v>

--- a/ES/ITL/Algorithm/ListOfVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/ListOfVariablesV004.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="94">
   <si>
     <t>Variable</t>
   </si>
@@ -294,13 +294,16 @@
     <t>FLAGS_1</t>
   </si>
   <si>
-    <t>ACTION_NEW_CYCLE</t>
-  </si>
-  <si>
     <t>End of old cycle</t>
   </si>
   <si>
     <t>ACTION_NEW_STATE</t>
+  </si>
+  <si>
+    <t>Shows that the cycle changed</t>
+  </si>
+  <si>
+    <t>FLAG_CYCLE_CHANGED</t>
   </si>
 </sst>
 </file>
@@ -497,6 +500,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,9 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -47022,7 +47025,7 @@
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I12" sqref="I12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47042,21 +47045,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J1"/>
@@ -48076,19 +48079,19 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -49106,8 +49109,8 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
@@ -49126,7 +49129,7 @@
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -49875,12 +49878,12 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="7">
         <f>SUM(E4:E38)</f>
         <v>1024</v>
@@ -49926,7 +49929,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B1"/>
@@ -49978,7 +49981,7 @@
       <c r="I2" s="11">
         <v>0</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="str">
@@ -49990,7 +49993,7 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="23" t="str">
+      <c r="L3" s="20" t="str">
         <f>$A$1&amp;".bits.b"&amp;K3</f>
         <v>FLAGS_0.bits.b0</v>
       </c>
@@ -50009,7 +50012,7 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="23" t="str">
+      <c r="L4" s="20" t="str">
         <f t="shared" ref="L4:L10" si="0">$A$1&amp;".bits.b"&amp;K4</f>
         <v>FLAGS_0.bits.b1</v>
       </c>
@@ -50028,7 +50031,7 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="23" t="str">
+      <c r="L5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FLAGS_0.bits.b2</v>
       </c>
@@ -50047,7 +50050,7 @@
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" s="23" t="str">
+      <c r="L6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FLAGS_0.bits.b3</v>
       </c>
@@ -50066,7 +50069,7 @@
       <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="23" t="str">
+      <c r="L7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FLAGS_0.bits.b4</v>
       </c>
@@ -50081,7 +50084,7 @@
       <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8" s="23" t="str">
+      <c r="L8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FLAGS_0.bits.b5</v>
       </c>
@@ -50096,7 +50099,7 @@
       <c r="K9">
         <v>6</v>
       </c>
-      <c r="L9" s="23" t="str">
+      <c r="L9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FLAGS_0.bits.b6</v>
       </c>
@@ -50111,7 +50114,7 @@
       <c r="K10">
         <v>7</v>
       </c>
-      <c r="L10" s="23" t="str">
+      <c r="L10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>FLAGS_0.bits.b7</v>
       </c>
@@ -50123,7 +50126,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
@@ -50152,7 +50155,7 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="20"/>
       <c r="O12" t="str">
         <f>"BYTE_BITS "&amp; A11 &amp;" = NULL;"</f>
         <v>BYTE_BITS FLAGS_1 = NULL;</v>
@@ -50162,15 +50165,15 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="23" t="str">
+      <c r="L13" s="20" t="str">
         <f>$A$11&amp;".bits.b"&amp;K13</f>
         <v>FLAGS_1.bits.b0</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" ref="O13:O20" si="2">IF(ISBLANK(M13),"","#define "&amp;M13&amp;" "&amp;L13)</f>
@@ -50181,23 +50184,26 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="L14" s="20" t="str">
         <f t="shared" ref="L14:L20" si="3">$A$11&amp;".bits.b"&amp;K14</f>
         <v>FLAGS_1.bits.b1</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="N14" t="s">
+        <v>92</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
-        <v>#define ACTION_NEW_CYCLE FLAGS_1.bits.b1</v>
+        <v>#define FLAG_CYCLE_CHANGED FLAGS_1.bits.b1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="L15" s="20" t="str">
         <f t="shared" si="3"/>
         <v>FLAGS_1.bits.b2</v>
       </c>
@@ -50210,7 +50216,7 @@
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="23" t="str">
+      <c r="L16" s="20" t="str">
         <f t="shared" si="3"/>
         <v>FLAGS_1.bits.b3</v>
       </c>
@@ -50223,7 +50229,7 @@
       <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17" s="23" t="str">
+      <c r="L17" s="20" t="str">
         <f t="shared" si="3"/>
         <v>FLAGS_1.bits.b4</v>
       </c>
@@ -50236,7 +50242,7 @@
       <c r="K18">
         <v>5</v>
       </c>
-      <c r="L18" s="23" t="str">
+      <c r="L18" s="20" t="str">
         <f t="shared" si="3"/>
         <v>FLAGS_1.bits.b5</v>
       </c>
@@ -50249,7 +50255,7 @@
       <c r="K19">
         <v>6</v>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="20" t="str">
         <f t="shared" si="3"/>
         <v>FLAGS_1.bits.b6</v>
       </c>
@@ -50262,7 +50268,7 @@
       <c r="K20">
         <v>7</v>
       </c>
-      <c r="L20" s="23" t="str">
+      <c r="L20" s="20" t="str">
         <f t="shared" si="3"/>
         <v>FLAGS_1.bits.b7</v>
       </c>
